--- a/Controle de gestion - Entreprise PREVIS.xlsx
+++ b/Controle de gestion - Entreprise PREVIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amtti\Documents\Université\Controle de gestion\M1---Controle-de-gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD7E92-909A-463A-B3E4-5C91018203F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4F99A5-02C2-44B0-B3BC-3A3AF8666DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A7C64645-C561-4C65-93AB-B003860D2525}"/>
   </bookViews>
